--- a/data/trans_orig/P63C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P63C-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>730542</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>703267</v>
+        <v>701741</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>756654</v>
+        <v>756329</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7364989791697726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7090018306803658</v>
+        <v>0.7074634210071885</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.762823858354141</v>
+        <v>0.7624955906470787</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>500</v>
@@ -765,19 +765,19 @@
         <v>512017</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>492997</v>
+        <v>491091</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>530078</v>
+        <v>530613</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8240759272350077</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7934637361857986</v>
+        <v>0.7903961774401878</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8531445322244227</v>
+        <v>0.8540043535653881</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1234</v>
@@ -786,19 +786,19 @@
         <v>1242559</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1209513</v>
+        <v>1206955</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1272975</v>
+        <v>1276347</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7702284524966198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.749743710494577</v>
+        <v>0.7481581077467203</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7890820720930334</v>
+        <v>0.7911724966843666</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>49362</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37114</v>
+        <v>37232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65590</v>
+        <v>65059</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04976448173131508</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03741670443856344</v>
+        <v>0.03753565463777907</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06612528217829891</v>
+        <v>0.06558940146601062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -836,19 +836,19 @@
         <v>3880</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13340</v>
+        <v>12439</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006244959717883367</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001494699786593073</v>
+        <v>0.001499791797066186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02147087540567085</v>
+        <v>0.02001965418157227</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -857,19 +857,19 @@
         <v>53242</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40958</v>
+        <v>40389</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68674</v>
+        <v>68151</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03300332951742691</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02538891533764157</v>
+        <v>0.025036126736614</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04256894786712299</v>
+        <v>0.04224479074695531</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>2911</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7266</v>
+        <v>8098</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002935033771534156</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0008346731947889719</v>
+        <v>0.0008452823831397095</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.007324997706183352</v>
+        <v>0.008163899201787993</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -923,16 +923,16 @@
         <v>837</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7125</v>
+        <v>7959</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001804631930668279</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.000518580555546658</v>
+        <v>0.0005189372654442162</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004416318924977421</v>
+        <v>0.004933381699097238</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6679</v>
+        <v>6635</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001924634142263493</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006732985568343452</v>
+        <v>0.006689329644254363</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6724</v>
+        <v>5803</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001183378624692134</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004168091288043661</v>
+        <v>0.003596862763364324</v>
       </c>
     </row>
     <row r="8">
@@ -1012,19 +1012,19 @@
         <v>28035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19790</v>
+        <v>19527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40062</v>
+        <v>39483</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02826372222295551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01995116117583102</v>
+        <v>0.01968651623941496</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04038854247909864</v>
+        <v>0.03980450298844494</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1033,19 +1033,19 @@
         <v>10245</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5090</v>
+        <v>4981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18074</v>
+        <v>16926</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01648927637379868</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008192274177959688</v>
+        <v>0.008016580616003839</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02908944653477326</v>
+        <v>0.02724134937091797</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -1054,19 +1054,19 @@
         <v>38280</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27489</v>
+        <v>27787</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51713</v>
+        <v>51773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02372890037792259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01703941483726104</v>
+        <v>0.0172243516521163</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03205560520932836</v>
+        <v>0.03209279045149369</v>
       </c>
     </row>
     <row r="9">
@@ -1083,19 +1083,19 @@
         <v>6357</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2961</v>
+        <v>2182</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13885</v>
+        <v>13196</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.006409043316059536</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002984955975174733</v>
+        <v>0.002200052553155701</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01399847446011786</v>
+        <v>0.01330385879380032</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1117,19 +1117,19 @@
         <v>6357</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2969</v>
+        <v>2196</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12930</v>
+        <v>13456</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003940657966314155</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001840441881183232</v>
+        <v>0.001361403454472551</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.008015134159619488</v>
+        <v>0.00834093747889315</v>
       </c>
     </row>
     <row r="10">
@@ -1146,19 +1146,19 @@
         <v>172795</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152155</v>
+        <v>149265</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197016</v>
+        <v>196940</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1742041056460997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1533959574939276</v>
+        <v>0.1504824399901019</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1986229219849509</v>
+        <v>0.1985459973749688</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -1167,19 +1167,19 @@
         <v>95180</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77231</v>
+        <v>75929</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113620</v>
+        <v>113180</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1531898366733103</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1243009024826987</v>
+        <v>0.1222049930737823</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1828677383531598</v>
+        <v>0.1821595140113156</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>269</v>
@@ -1188,19 +1188,19 @@
         <v>267976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>239543</v>
+        <v>238303</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>296675</v>
+        <v>299263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1661106490863562</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1484863309984864</v>
+        <v>0.1477172605170872</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1839009197242355</v>
+        <v>0.1855051230362528</v>
       </c>
     </row>
     <row r="11">
@@ -1292,19 +1292,19 @@
         <v>1128097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1094286</v>
+        <v>1095342</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1163122</v>
+        <v>1158901</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7682464859560103</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7452209737449323</v>
+        <v>0.7459403192624753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7920988908638524</v>
+        <v>0.789224427932304</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>914</v>
@@ -1313,19 +1313,19 @@
         <v>944026</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>920731</v>
+        <v>920009</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>965818</v>
+        <v>966344</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8637665847284582</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8424518360493629</v>
+        <v>0.8417916131975746</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8837055784543969</v>
+        <v>0.8841875225662982</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1999</v>
@@ -1334,19 +1334,19 @@
         <v>2072123</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2032254</v>
+        <v>2029532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2116611</v>
+        <v>2109594</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8090049556543442</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.793439088326668</v>
+        <v>0.7923764033859929</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8263740233088808</v>
+        <v>0.8236346306616414</v>
       </c>
     </row>
     <row r="13">
@@ -1363,19 +1363,19 @@
         <v>81640</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65479</v>
+        <v>64805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100595</v>
+        <v>101133</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05559777366177802</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04459166520668768</v>
+        <v>0.04413269739372198</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06850619466284415</v>
+        <v>0.06887299494577491</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1384,19 +1384,19 @@
         <v>19002</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11710</v>
+        <v>11505</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28439</v>
+        <v>28446</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01738611537639769</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01071465113545833</v>
+        <v>0.01052659346751447</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0260215795369983</v>
+        <v>0.02602727179500917</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -1405,19 +1405,19 @@
         <v>100642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81721</v>
+        <v>81942</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121112</v>
+        <v>121517</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03929284164890412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03190561580026108</v>
+        <v>0.03199222089566018</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0472849788297284</v>
+        <v>0.04744324404210356</v>
       </c>
     </row>
     <row r="14">
@@ -1434,19 +1434,19 @@
         <v>11594</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5878</v>
+        <v>6177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20991</v>
+        <v>21159</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007895675360288566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004002944365871047</v>
+        <v>0.004206323398326103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01429494034316001</v>
+        <v>0.0144095455608692</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1455,19 +1455,19 @@
         <v>3970</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1053</v>
+        <v>962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10006</v>
+        <v>9736</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003632707489993974</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0009636482019795117</v>
+        <v>0.0008804590795654087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009155326920194272</v>
+        <v>0.008908352047143749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1476,19 +1476,19 @@
         <v>15564</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8134</v>
+        <v>9078</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24540</v>
+        <v>25494</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006076665026345207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003175857441288771</v>
+        <v>0.003544400320516688</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009580874989990881</v>
+        <v>0.00995342492629038</v>
       </c>
     </row>
     <row r="15">
@@ -1505,19 +1505,19 @@
         <v>8396</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3749</v>
+        <v>3917</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17319</v>
+        <v>17228</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005717454618615918</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002553241820445174</v>
+        <v>0.002667301531111704</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01179449320814178</v>
+        <v>0.01173274727409697</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7197</v>
+        <v>7562</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001913630093455229</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.006585026017083035</v>
+        <v>0.006919435749688093</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -1547,19 +1547,19 @@
         <v>10487</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5040</v>
+        <v>5555</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>20549</v>
+        <v>20755</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004094360959386361</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001967601654656767</v>
+        <v>0.002168623465326522</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.008022629461318057</v>
+        <v>0.008103269259440668</v>
       </c>
     </row>
     <row r="16">
@@ -1576,19 +1576,19 @@
         <v>84415</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67101</v>
+        <v>67389</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103010</v>
+        <v>103978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05748768319902279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04569675599841511</v>
+        <v>0.04589249841499176</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07015103785915461</v>
+        <v>0.07081037138726123</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1597,19 +1597,19 @@
         <v>24902</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16858</v>
+        <v>16696</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37104</v>
+        <v>36978</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02278465615921918</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01542458602689946</v>
+        <v>0.01527654682424943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03394977342111005</v>
+        <v>0.03383414894180572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -1618,19 +1618,19 @@
         <v>109317</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>88755</v>
+        <v>90306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128701</v>
+        <v>132531</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04267988573838739</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0346518811267165</v>
+        <v>0.03525769077069595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05024801295039284</v>
+        <v>0.05174307874531857</v>
       </c>
     </row>
     <row r="17">
@@ -1647,19 +1647,19 @@
         <v>20395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12443</v>
+        <v>12468</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32468</v>
+        <v>33290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01388894548042044</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008473941654678904</v>
+        <v>0.008490875797744489</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0221111833991598</v>
+        <v>0.02267106816061041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1668,19 +1668,19 @@
         <v>2938</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7832</v>
+        <v>7949</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00268834564292915</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0008518440510761186</v>
+        <v>0.0008565652703457269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.007166421907532715</v>
+        <v>0.007272956699021058</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1689,19 +1689,19 @@
         <v>23333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14735</v>
+        <v>14924</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37016</v>
+        <v>37042</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009109644422879745</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005752844800072615</v>
+        <v>0.005826613376926791</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01445199322569732</v>
+        <v>0.0144621073253638</v>
       </c>
     </row>
     <row r="18">
@@ -1718,19 +1718,19 @@
         <v>133869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>113283</v>
+        <v>113000</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>160405</v>
+        <v>159604</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09116598172386392</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07714708555083184</v>
+        <v>0.07695453398170683</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1092374473137276</v>
+        <v>0.1086917518709111</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>92</v>
@@ -1739,19 +1739,19 @@
         <v>95989</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77289</v>
+        <v>78770</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>115267</v>
+        <v>116321</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08782796050954653</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07071761797240789</v>
+        <v>0.07207283774855802</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1054670099174281</v>
+        <v>0.1064320323540216</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>223</v>
@@ -1760,19 +1760,19 @@
         <v>229857</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>200416</v>
+        <v>201177</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>260846</v>
+        <v>261916</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08974164654975296</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07824690832264038</v>
+        <v>0.07854423807639821</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1018403005705611</v>
+        <v>0.1022580740013799</v>
       </c>
     </row>
     <row r="19">
@@ -1864,19 +1864,19 @@
         <v>343872</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321733</v>
+        <v>321100</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>365812</v>
+        <v>366984</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6638121555697167</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6210756178585237</v>
+        <v>0.6198535782178184</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7061656026581798</v>
+        <v>0.7084276619802481</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>337</v>
@@ -1885,19 +1885,19 @@
         <v>354515</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>339443</v>
+        <v>335330</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>367820</v>
+        <v>366978</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8539990173389568</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8176908773465232</v>
+        <v>0.8077832146814515</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8860476066045823</v>
+        <v>0.8840194633011066</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>668</v>
@@ -1906,19 +1906,19 @@
         <v>698387</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>669250</v>
+        <v>669302</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>726449</v>
+        <v>723149</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7484192856653071</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7171951498770036</v>
+        <v>0.7172508358685958</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7784918299853961</v>
+        <v>0.7749557499890274</v>
       </c>
     </row>
     <row r="21">
@@ -1935,19 +1935,19 @@
         <v>58089</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>44663</v>
+        <v>43911</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>73452</v>
+        <v>74962</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1121344667554111</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08621789682445632</v>
+        <v>0.08476545238966363</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1417912389082797</v>
+        <v>0.1447063864546607</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -1956,19 +1956,19 @@
         <v>16643</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9235</v>
+        <v>10084</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25903</v>
+        <v>27141</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0400922957650155</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02224662784892011</v>
+        <v>0.02429055568635814</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06239846944850898</v>
+        <v>0.06537940973048494</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -1977,19 +1977,19 @@
         <v>74732</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>57658</v>
+        <v>59730</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>92207</v>
+        <v>91458</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08008555824169487</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0617889943810065</v>
+        <v>0.06400928254535189</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09881271365371982</v>
+        <v>0.09801051465561735</v>
       </c>
     </row>
     <row r="22">
@@ -2006,19 +2006,19 @@
         <v>6910</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2536</v>
+        <v>2501</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15489</v>
+        <v>14938</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01333910651189401</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004895198477241561</v>
+        <v>0.004827347900632609</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02989917345327829</v>
+        <v>0.02883718431648943</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6188</v>
+        <v>6508</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004477900476620144</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01490618403193344</v>
+        <v>0.01567764570872728</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -2048,19 +2048,19 @@
         <v>8769</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3895</v>
+        <v>3889</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17012</v>
+        <v>17116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009397082310769602</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004173898559541172</v>
+        <v>0.004168135538661744</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01823105558349935</v>
+        <v>0.01834192950293974</v>
       </c>
     </row>
     <row r="23">
@@ -2077,19 +2077,19 @@
         <v>17999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10758</v>
+        <v>10319</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28830</v>
+        <v>29072</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03474485987035198</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02076684319944595</v>
+        <v>0.01991974648631158</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0556526208508752</v>
+        <v>0.05611995571665009</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2098,19 +2098,19 @@
         <v>2988</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8934</v>
+        <v>9423</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007197706096795384</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002225683092949042</v>
+        <v>0.002230533952011849</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02152012777101121</v>
+        <v>0.02269977436900296</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -2119,19 +2119,19 @@
         <v>20987</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12960</v>
+        <v>12778</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32967</v>
+        <v>33942</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02249014573604741</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01388893385671374</v>
+        <v>0.01369343429032373</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03532853633799788</v>
+        <v>0.03637408582826766</v>
       </c>
     </row>
     <row r="24">
@@ -2148,19 +2148,19 @@
         <v>48715</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36552</v>
+        <v>36354</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>63641</v>
+        <v>65747</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09403904085248044</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07055944378625768</v>
+        <v>0.07017715913824718</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1228535191574762</v>
+        <v>0.1269190722061685</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -2169,19 +2169,19 @@
         <v>16627</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9894</v>
+        <v>9907</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26181</v>
+        <v>26123</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0400526729761416</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02383334770446569</v>
+        <v>0.02386607100308742</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06306772193943624</v>
+        <v>0.06292800242852205</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -2190,19 +2190,19 @@
         <v>65341</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>51309</v>
+        <v>51949</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>84410</v>
+        <v>82100</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07002249413726171</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05498506923305224</v>
+        <v>0.05567071243149362</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0904571395338741</v>
+        <v>0.08798199657822112</v>
       </c>
     </row>
     <row r="25">
@@ -2219,19 +2219,19 @@
         <v>8233</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3625</v>
+        <v>3661</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17114</v>
+        <v>17234</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01589352565554163</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006998032955693532</v>
+        <v>0.007067208477457091</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03303680407250938</v>
+        <v>0.03326888519975517</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2240,19 +2240,19 @@
         <v>4161</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>995</v>
+        <v>1029</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10245</v>
+        <v>9717</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01002433695532536</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002396599993176311</v>
+        <v>0.002479189265029027</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02467984082065055</v>
+        <v>0.02340656314402846</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2261,19 +2261,19 @@
         <v>12395</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6422</v>
+        <v>6131</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22020</v>
+        <v>22061</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01328253976884416</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006882594809144944</v>
+        <v>0.006570252466932633</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02359795737287826</v>
+        <v>0.02364142655783859</v>
       </c>
     </row>
     <row r="26">
@@ -2290,19 +2290,19 @@
         <v>34209</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24161</v>
+        <v>23785</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48750</v>
+        <v>46832</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06603684478460407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04664072600082084</v>
+        <v>0.04591497928523885</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09410775525282977</v>
+        <v>0.09040562410299698</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -2311,19 +2311,19 @@
         <v>18330</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11153</v>
+        <v>11473</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28956</v>
+        <v>29032</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04415607039114521</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02686708186327445</v>
+        <v>0.02763719280949863</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06975165990653334</v>
+        <v>0.06993524847930919</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>50</v>
@@ -2332,19 +2332,19 @@
         <v>52539</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>40592</v>
+        <v>40366</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>68800</v>
+        <v>69568</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0563028941400751</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04350052900489033</v>
+        <v>0.04325790967215454</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07372891009176417</v>
+        <v>0.0745522194434812</v>
       </c>
     </row>
     <row r="27">
@@ -2436,19 +2436,19 @@
         <v>2202511</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2153939</v>
+        <v>2155558</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2250693</v>
+        <v>2253951</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7395088960797731</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7232005911032675</v>
+        <v>0.7237439742167099</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.755686383024888</v>
+        <v>0.7567801103210526</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1751</v>
@@ -2457,19 +2457,19 @@
         <v>1810558</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1772919</v>
+        <v>1779623</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1839436</v>
+        <v>1840378</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8502811217372491</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8326051692871124</v>
+        <v>0.8357532244538263</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8638429859281429</v>
+        <v>0.8642854226459288</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3901</v>
@@ -2478,19 +2478,19 @@
         <v>4013069</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3953861</v>
+        <v>3950105</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4070857</v>
+        <v>4069997</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7856889959771021</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7740970478435771</v>
+        <v>0.7733617494069582</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7970028457535916</v>
+        <v>0.7968344605922161</v>
       </c>
     </row>
     <row r="29">
@@ -2507,19 +2507,19 @@
         <v>189091</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>162671</v>
+        <v>162301</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>216834</v>
+        <v>216599</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0634885192281726</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05461798052080565</v>
+        <v>0.05449361789031446</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0728035829150912</v>
+        <v>0.0727246876078696</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -2528,19 +2528,19 @@
         <v>39525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28223</v>
+        <v>27625</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53006</v>
+        <v>54839</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01856187560610743</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01325409833771042</v>
+        <v>0.01297319284069707</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02489268309566221</v>
+        <v>0.0257534721308512</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>224</v>
@@ -2549,19 +2549,19 @@
         <v>228616</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>198665</v>
+        <v>199871</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>259304</v>
+        <v>261250</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04475894258380693</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03889521648987803</v>
+        <v>0.03913121550532589</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05076720151685449</v>
+        <v>0.05114812830452894</v>
       </c>
     </row>
     <row r="30">
@@ -2578,19 +2578,19 @@
         <v>21415</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13431</v>
+        <v>13588</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32778</v>
+        <v>32803</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.007190356022935449</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004509516101365993</v>
+        <v>0.004562256980049671</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01100555640562837</v>
+        <v>0.01101377092718804</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -2599,19 +2599,19 @@
         <v>5829</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2763</v>
+        <v>1985</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12147</v>
+        <v>12402</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002737499232176487</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001297635527155091</v>
+        <v>0.0009321098355403313</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.005704729928518944</v>
+        <v>0.005824317161898325</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>26</v>
@@ -2620,19 +2620,19 @@
         <v>27244</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18451</v>
+        <v>17782</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39655</v>
+        <v>39329</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005333993832817529</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003612373108510408</v>
+        <v>0.00348147329579977</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.007763733043229032</v>
+        <v>0.007700007743343319</v>
       </c>
     </row>
     <row r="31">
@@ -2649,19 +2649,19 @@
         <v>28303</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18226</v>
+        <v>18467</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40334</v>
+        <v>42245</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.009503048581289751</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.00611962613802428</v>
+        <v>0.006200458969193894</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01354251789954598</v>
+        <v>0.01418403838387495</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2670,19 +2670,19 @@
         <v>5079</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10614</v>
+        <v>11460</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002385397067825665</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.000885910819250141</v>
+        <v>0.0008818885627809542</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.004984489901744183</v>
+        <v>0.0053820698570766</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>31</v>
@@ -2691,19 +2691,19 @@
         <v>33383</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>23000</v>
+        <v>23342</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48722</v>
+        <v>48517</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006535753702314258</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004502976189117838</v>
+        <v>0.00457003092950409</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.009538946678713805</v>
+        <v>0.009498718803642102</v>
       </c>
     </row>
     <row r="32">
@@ -2720,19 +2720,19 @@
         <v>161165</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>138463</v>
+        <v>136896</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>187174</v>
+        <v>190719</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05411229751441218</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04648997241463422</v>
+        <v>0.04596365881384796</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06284517034130874</v>
+        <v>0.06403530665894758</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -2741,19 +2741,19 @@
         <v>51774</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38497</v>
+        <v>37429</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67794</v>
+        <v>67607</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02431417458292755</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01807911938051117</v>
+        <v>0.01757736608293192</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03183771192227435</v>
+        <v>0.03174994524959211</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>205</v>
@@ -2762,19 +2762,19 @@
         <v>212939</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>183150</v>
+        <v>187698</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>243072</v>
+        <v>243227</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04168968629069359</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03585762810820388</v>
+        <v>0.03674800029301867</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04758932679256736</v>
+        <v>0.04761967951550304</v>
       </c>
     </row>
     <row r="33">
@@ -2791,19 +2791,19 @@
         <v>34985</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>24800</v>
+        <v>23235</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>50304</v>
+        <v>49315</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01174648542015007</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.008326902882157363</v>
+        <v>0.00780120425843561</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01688994514499507</v>
+        <v>0.01655796217232879</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>7</v>
@@ -2812,19 +2812,19 @@
         <v>7099</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2957</v>
+        <v>3010</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>14682</v>
+        <v>15207</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.003334084944817768</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.001388810026193021</v>
+        <v>0.001413641426294367</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.006894937657581237</v>
+        <v>0.007141521018659225</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>37</v>
@@ -2833,19 +2833,19 @@
         <v>42085</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>30169</v>
+        <v>30613</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>57826</v>
+        <v>57890</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.008239419528665344</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.005906491836150746</v>
+        <v>0.005993440794202644</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01132137534725925</v>
+        <v>0.01133381491247414</v>
       </c>
     </row>
     <row r="34">
@@ -2862,19 +2862,19 @@
         <v>340873</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>307608</v>
+        <v>304874</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>380127</v>
+        <v>377502</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1144503971532669</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1032815194667922</v>
+        <v>0.1023634675532856</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1276305121560344</v>
+        <v>0.1267489435152933</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>203</v>
@@ -2883,19 +2883,19 @@
         <v>209499</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>184284</v>
+        <v>185308</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>239083</v>
+        <v>238475</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09838584682889599</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08654403196194224</v>
+        <v>0.08702516722114406</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1122790512202062</v>
+        <v>0.1119936127960393</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>542</v>
@@ -2904,19 +2904,19 @@
         <v>550372</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>507814</v>
+        <v>507150</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>594423</v>
+        <v>597191</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1077532080846003</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0994212125491704</v>
+        <v>0.099291065392241</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1163777067850925</v>
+        <v>0.1169196207900476</v>
       </c>
     </row>
     <row r="35">
@@ -3247,19 +3247,19 @@
         <v>730661</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>704664</v>
+        <v>702646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>756280</v>
+        <v>754424</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7696811128171893</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7422961941691059</v>
+        <v>0.7401706879371998</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7966685914966207</v>
+        <v>0.7947134381965644</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>569</v>
@@ -3268,19 +3268,19 @@
         <v>612520</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>587890</v>
+        <v>590166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>631832</v>
+        <v>630674</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8360132369685229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8023964219320351</v>
+        <v>0.8055029418190538</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8623715335977999</v>
+        <v>0.860791548200442</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1246</v>
@@ -3289,19 +3289,19 @@
         <v>1343181</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1309165</v>
+        <v>1306246</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1372786</v>
+        <v>1375761</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7985754395398494</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.77835172387523</v>
+        <v>0.7766163654077007</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8161770027426698</v>
+        <v>0.817945977615734</v>
       </c>
     </row>
     <row r="5">
@@ -3318,19 +3318,19 @@
         <v>24378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15597</v>
+        <v>15532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35653</v>
+        <v>34905</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02568028247019654</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01643013925146847</v>
+        <v>0.01636141134943909</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03755722839581284</v>
+        <v>0.03676919495931374</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7295</v>
+        <v>7473</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002856972910191281</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.009957168913960359</v>
+        <v>0.01019965683982201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -3360,19 +3360,19 @@
         <v>26472</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17712</v>
+        <v>17957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39501</v>
+        <v>38478</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01573843043761776</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01053030916363938</v>
+        <v>0.0106763093178632</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02348471491315967</v>
+        <v>0.02287700189888589</v>
       </c>
     </row>
     <row r="6">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8151</v>
+        <v>7109</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002137879332437929</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.008586023796700263</v>
+        <v>0.007488207913284639</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6675</v>
+        <v>6313</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002698358532232274</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009110751644811675</v>
+        <v>0.008616396603041181</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -3431,19 +3431,19 @@
         <v>4006</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9230</v>
+        <v>10086</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002382024523434158</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006137643369561195</v>
+        <v>0.0006108397593528943</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.005487545976567193</v>
+        <v>0.00599678527340834</v>
       </c>
     </row>
     <row r="7">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11482</v>
+        <v>12673</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003465695234783429</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01209528795972773</v>
+        <v>0.01335032047051789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7135</v>
+        <v>6156</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002769902246125941</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009738183371969852</v>
+        <v>0.008402749944315977</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -3502,19 +3502,19 @@
         <v>5319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1104</v>
+        <v>2017</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14781</v>
+        <v>13968</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00316260724833906</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006562873852920221</v>
+        <v>0.001198961454213403</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008787780512880887</v>
+        <v>0.008304792283771054</v>
       </c>
     </row>
     <row r="8">
@@ -3531,19 +3531,19 @@
         <v>22620</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14530</v>
+        <v>14424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34297</v>
+        <v>33982</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02382845198490159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01530599772521866</v>
+        <v>0.01519469895695413</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03612822960878447</v>
+        <v>0.03579647425595363</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -3552,19 +3552,19 @@
         <v>9215</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4644</v>
+        <v>5022</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16531</v>
+        <v>17135</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01257668360478413</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00633796332242496</v>
+        <v>0.006854555460718232</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02256279750653827</v>
+        <v>0.02338673343628508</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -3573,19 +3573,19 @@
         <v>31835</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21552</v>
+        <v>22073</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43395</v>
+        <v>45227</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01892717261321914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01281363072218762</v>
+        <v>0.01312301918776334</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0258002466184428</v>
+        <v>0.02688908754289921</v>
       </c>
     </row>
     <row r="9">
@@ -3602,19 +3602,19 @@
         <v>10037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4923</v>
+        <v>5083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17553</v>
+        <v>17838</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01057351234866478</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0051859014210511</v>
+        <v>0.005354401684261084</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01849068156916849</v>
+        <v>0.01879033487472211</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -3623,19 +3623,19 @@
         <v>5235</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2067</v>
+        <v>2056</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11517</v>
+        <v>11681</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007145080760682741</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002820674443102631</v>
+        <v>0.002806307469783948</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0157194679145084</v>
+        <v>0.01594299539260953</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -3644,19 +3644,19 @@
         <v>15272</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9146</v>
+        <v>8918</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24797</v>
+        <v>25143</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.009080084786727588</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005437541461688132</v>
+        <v>0.005302071582141511</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01474278270876518</v>
+        <v>0.014948357263276</v>
       </c>
     </row>
     <row r="10">
@@ -3673,19 +3673,19 @@
         <v>156287</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>135366</v>
+        <v>133892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181207</v>
+        <v>181690</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1646330658118264</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1425946558992832</v>
+        <v>0.1410423260851477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1908842549665966</v>
+        <v>0.1913927602084115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -3694,19 +3694,19 @@
         <v>99599</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82369</v>
+        <v>83116</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122011</v>
+        <v>120377</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1359397649774608</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1124237204026254</v>
+        <v>0.1134430741577443</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.166529759978382</v>
+        <v>0.1642989430589287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>242</v>
@@ -3715,19 +3715,19 @@
         <v>255885</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>228952</v>
+        <v>226048</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285899</v>
+        <v>286808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1521342408508129</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1361211155650562</v>
+        <v>0.1343948645102632</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.169978436380495</v>
+        <v>0.1705192161665355</v>
       </c>
     </row>
     <row r="11">
@@ -3819,19 +3819,19 @@
         <v>1345475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1307694</v>
+        <v>1309335</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1381222</v>
+        <v>1380725</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7752434943949239</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7534749241161395</v>
+        <v>0.7544205551105159</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7958404628540496</v>
+        <v>0.795554340718673</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1041</v>
@@ -3840,19 +3840,19 @@
         <v>1126190</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1100586</v>
+        <v>1099059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1152332</v>
+        <v>1150486</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8636317892494141</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8439974220818943</v>
+        <v>0.8428263040275752</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8836792830338736</v>
+        <v>0.8822636737825835</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2306</v>
@@ -3861,19 +3861,19 @@
         <v>2471664</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2424149</v>
+        <v>2425434</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2517952</v>
+        <v>2513919</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8131632862456106</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7975309713726144</v>
+        <v>0.7979537180093541</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8283915819828209</v>
+        <v>0.8270647584444796</v>
       </c>
     </row>
     <row r="13">
@@ -3890,19 +3890,19 @@
         <v>92262</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74423</v>
+        <v>72198</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116274</v>
+        <v>113245</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05316025766137104</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04288132423476899</v>
+        <v>0.04159940506731036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06699539020504024</v>
+        <v>0.06525043916571828</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -3911,19 +3911,19 @@
         <v>29681</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18846</v>
+        <v>19076</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43279</v>
+        <v>43258</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02276100215990897</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01445203186683737</v>
+        <v>0.01462865722293022</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03318881854238578</v>
+        <v>0.03317257506796902</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -3932,19 +3932,19 @@
         <v>121943</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99391</v>
+        <v>99436</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145649</v>
+        <v>147786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04011855974278374</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03269896379160703</v>
+        <v>0.03271388842452459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04791755894123133</v>
+        <v>0.04862086460090138</v>
       </c>
     </row>
     <row r="14">
@@ -3961,19 +3961,19 @@
         <v>18297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11197</v>
+        <v>10580</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30297</v>
+        <v>29457</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01054259711862417</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006451325812862856</v>
+        <v>0.006096103568217756</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01745643120205866</v>
+        <v>0.0169725575470036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -3982,19 +3982,19 @@
         <v>8378</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3285</v>
+        <v>3662</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17551</v>
+        <v>17815</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006424767294701548</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002519363961633023</v>
+        <v>0.002808165228041655</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01345915261985376</v>
+        <v>0.01366130028885707</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -4003,19 +4003,19 @@
         <v>26675</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17406</v>
+        <v>17852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39916</v>
+        <v>40278</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008775991596289405</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005726613487197955</v>
+        <v>0.005873250672313938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01313222884789571</v>
+        <v>0.01325115248503997</v>
       </c>
     </row>
     <row r="15">
@@ -4032,19 +4032,19 @@
         <v>9906</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4511</v>
+        <v>5012</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20046</v>
+        <v>19957</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005707814285154387</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002599144140615247</v>
+        <v>0.00288800751139584</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01155020562703863</v>
+        <v>0.01149872496175587</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6383</v>
+        <v>7211</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001577821789619499</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.004894573585721989</v>
+        <v>0.005529763886986649</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -4074,19 +4074,19 @@
         <v>11964</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6268</v>
+        <v>6241</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>23827</v>
+        <v>22454</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003935990809733814</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002062079490513537</v>
+        <v>0.002053289935879438</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.00783903091274547</v>
+        <v>0.007387186004659736</v>
       </c>
     </row>
     <row r="16">
@@ -4103,19 +4103,19 @@
         <v>57380</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44148</v>
+        <v>43464</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74069</v>
+        <v>72999</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03306142849304111</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02543759426323002</v>
+        <v>0.02504363063828041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04267734155406915</v>
+        <v>0.04206086103234605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -4124,19 +4124,19 @@
         <v>22317</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14263</v>
+        <v>14465</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33700</v>
+        <v>34451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01711419277566626</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01093777476243045</v>
+        <v>0.0110927744741264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02584347164099736</v>
+        <v>0.02641890697950071</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -4145,19 +4145,19 @@
         <v>79697</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64710</v>
+        <v>63139</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98088</v>
+        <v>97009</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02621984545320299</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02128910418277748</v>
+        <v>0.02077220353667833</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0322702782108772</v>
+        <v>0.03191537381451984</v>
       </c>
     </row>
     <row r="17">
@@ -4174,19 +4174,19 @@
         <v>18399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10649</v>
+        <v>10961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30652</v>
+        <v>31078</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01060145040199999</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006135564693459895</v>
+        <v>0.006315595639130886</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01766122112780053</v>
+        <v>0.01790657589683324</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -4195,19 +4195,19 @@
         <v>9957</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4167</v>
+        <v>4226</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19592</v>
+        <v>19866</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007635699388230072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003195661218162932</v>
+        <v>0.003240409483147617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01502405705882468</v>
+        <v>0.01523453274092545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -4216,19 +4216,19 @@
         <v>28356</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17244</v>
+        <v>18379</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40353</v>
+        <v>42147</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009329102504484177</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005673234698808841</v>
+        <v>0.006046620992699875</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01327605612487637</v>
+        <v>0.01386597740183965</v>
       </c>
     </row>
     <row r="18">
@@ -4245,19 +4245,19 @@
         <v>193831</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>168451</v>
+        <v>166099</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>222469</v>
+        <v>223851</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1116829576448854</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09705882517485019</v>
+        <v>0.09570366538951117</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1281836170742153</v>
+        <v>0.1289797912154553</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -4266,19 +4266,19 @@
         <v>105436</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>87397</v>
+        <v>87756</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128533</v>
+        <v>127557</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08085472734245962</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06702174735190054</v>
+        <v>0.06729644029401143</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09856731166259416</v>
+        <v>0.09781868563821809</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>281</v>
@@ -4287,19 +4287,19 @@
         <v>299267</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>265968</v>
+        <v>266628</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>337785</v>
+        <v>335335</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09845722364789526</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08750206514727231</v>
+        <v>0.08771896508708389</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1111293503387672</v>
+        <v>0.1103231246604775</v>
       </c>
     </row>
     <row r="19">
@@ -4391,19 +4391,19 @@
         <v>301203</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280928</v>
+        <v>279868</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>323727</v>
+        <v>321592</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6734405652748748</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6281086451723296</v>
+        <v>0.6257385300378128</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7238006844990873</v>
+        <v>0.7190261258451582</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>296</v>
@@ -4412,19 +4412,19 @@
         <v>328718</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>312255</v>
+        <v>311703</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>343060</v>
+        <v>343201</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8433151012550107</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8010798952605276</v>
+        <v>0.7996631245738683</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8801079702808657</v>
+        <v>0.8804694777471409</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>569</v>
@@ -4433,19 +4433,19 @@
         <v>629921</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602826</v>
+        <v>600203</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>655614</v>
+        <v>655411</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7525466429279789</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7201762414999722</v>
+        <v>0.7170427088120178</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7832404327336319</v>
+        <v>0.782998603071014</v>
       </c>
     </row>
     <row r="21">
@@ -4462,19 +4462,19 @@
         <v>55719</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40977</v>
+        <v>41584</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70777</v>
+        <v>71406</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1245788213512935</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09161716536255562</v>
+        <v>0.09297591567800359</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1582453877976065</v>
+        <v>0.1596529492011179</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>16</v>
@@ -4483,19 +4483,19 @@
         <v>16664</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9793</v>
+        <v>10499</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26554</v>
+        <v>26799</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04275121680466017</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02512277952295172</v>
+        <v>0.02693442568126841</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06812376600536069</v>
+        <v>0.06875249463734304</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>65</v>
@@ -4504,19 +4504,19 @@
         <v>72383</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55070</v>
+        <v>56497</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91300</v>
+        <v>92682</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08647387052929166</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06579050424220807</v>
+        <v>0.0674949922556748</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1090735427474691</v>
+        <v>0.1107236760892801</v>
       </c>
     </row>
     <row r="22">
@@ -4533,19 +4533,19 @@
         <v>6870</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2867</v>
+        <v>2841</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14848</v>
+        <v>14656</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01535994834668307</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006410817592213128</v>
+        <v>0.006352102400384993</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03319706959689953</v>
+        <v>0.03276737160970262</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4554,19 +4554,19 @@
         <v>3180</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8392</v>
+        <v>8868</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008156957850566415</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002490187540238315</v>
+        <v>0.00247199353403827</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0215300883412378</v>
+        <v>0.02275063425702659</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -4575,19 +4575,19 @@
         <v>10049</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4845</v>
+        <v>4965</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19160</v>
+        <v>18901</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01200570621596724</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005787943195829845</v>
+        <v>0.005931647567901447</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02289010414723968</v>
+        <v>0.02258072359403073</v>
       </c>
     </row>
     <row r="23">
@@ -4604,19 +4604,19 @@
         <v>13157</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7538</v>
+        <v>7185</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21572</v>
+        <v>21275</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02941786193365594</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01685398461665853</v>
+        <v>0.01606549472096389</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04823222833357396</v>
+        <v>0.04756757441212307</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7082</v>
+        <v>5960</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003079200718190207</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01816884559932898</v>
+        <v>0.01528914431761548</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -4646,19 +4646,19 @@
         <v>14358</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8607</v>
+        <v>8256</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24403</v>
+        <v>23172</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0171526441517921</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01028245329254984</v>
+        <v>0.009863383641139464</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0291528858480103</v>
+        <v>0.02768317663248841</v>
       </c>
     </row>
     <row r="24">
@@ -4675,19 +4675,19 @@
         <v>23304</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15041</v>
+        <v>14480</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35557</v>
+        <v>35441</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05210371574417828</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03363025455496535</v>
+        <v>0.03237400736202146</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07949920145497577</v>
+        <v>0.0792396900385154</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -4696,19 +4696,19 @@
         <v>8874</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3841</v>
+        <v>3164</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17299</v>
+        <v>18473</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02276514658549925</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009853956838722042</v>
+        <v>0.00811749688370769</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04437878448046221</v>
+        <v>0.04739238433192401</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -4717,19 +4717,19 @@
         <v>32178</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21233</v>
+        <v>20912</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46866</v>
+        <v>46717</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03844152019081522</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02536579920077237</v>
+        <v>0.02498252493924634</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05598882840276765</v>
+        <v>0.05581134571946826</v>
       </c>
     </row>
     <row r="25">
@@ -4746,19 +4746,19 @@
         <v>11302</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4979</v>
+        <v>5488</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19349</v>
+        <v>20407</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02526855582006391</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01113184656936107</v>
+        <v>0.01226923977763318</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04326107788237048</v>
+        <v>0.04562740364973456</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4767,19 +4767,19 @@
         <v>3020</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8157</v>
+        <v>8179</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007746850625095369</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002265721687921979</v>
+        <v>0.002271878412175693</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02092722679105858</v>
+        <v>0.02098253502667851</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -4788,19 +4788,19 @@
         <v>14321</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8018</v>
+        <v>8077</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23999</v>
+        <v>25775</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01710916121880327</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009579079349293002</v>
+        <v>0.00964929149505866</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02867030392365863</v>
+        <v>0.03079292417060388</v>
       </c>
     </row>
     <row r="26">
@@ -4817,19 +4817,19 @@
         <v>35705</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24852</v>
+        <v>24241</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48890</v>
+        <v>48563</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0798305315292504</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0555651965961512</v>
+        <v>0.05419926912674943</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1093092569504478</v>
+        <v>0.1085800168196975</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -4838,19 +4838,19 @@
         <v>28137</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18554</v>
+        <v>19055</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>42530</v>
+        <v>42227</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07218552616097781</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04759880311296504</v>
+        <v>0.04888570697445612</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1091100118715928</v>
+        <v>0.1083318705047841</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>55</v>
@@ -4859,19 +4859,19 @@
         <v>63842</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>48183</v>
+        <v>48994</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>81885</v>
+        <v>82819</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07627045476535163</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05756287141162196</v>
+        <v>0.05853139699433762</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09782574441232152</v>
+        <v>0.0989415477424376</v>
       </c>
     </row>
     <row r="27">
@@ -4963,19 +4963,19 @@
         <v>2377338</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2321892</v>
+        <v>2322217</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2427887</v>
+        <v>2426704</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7590203539960597</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7413177621124973</v>
+        <v>0.7414216092507712</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7751590885561934</v>
+        <v>0.774781628033658</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1906</v>
@@ -4984,19 +4984,19 @@
         <v>2067428</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2029821</v>
+        <v>2034519</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2106230</v>
+        <v>2105603</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8520287389282071</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8365302388188345</v>
+        <v>0.8384663368282664</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8680198551639239</v>
+        <v>0.8677612301658311</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4121</v>
@@ -5005,19 +5005,19 @@
         <v>4444766</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4377931</v>
+        <v>4386580</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4502710</v>
+        <v>4510112</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7996210633541329</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7875971912977633</v>
+        <v>0.7891532731920831</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8100451279333264</v>
+        <v>0.8113768694490968</v>
       </c>
     </row>
     <row r="29">
@@ -5034,19 +5034,19 @@
         <v>172360</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>148457</v>
+        <v>147814</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>201531</v>
+        <v>203506</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05502986144444302</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04739834930500578</v>
+        <v>0.04719303013399082</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0643433707253714</v>
+        <v>0.06497405018139217</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -5055,19 +5055,19 @@
         <v>48438</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>35398</v>
+        <v>36649</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>64094</v>
+        <v>65134</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01996229942483067</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01458826717453574</v>
+        <v>0.01510365600970106</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02641459022171921</v>
+        <v>0.0268428606827132</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>199</v>
@@ -5076,19 +5076,19 @@
         <v>220798</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>190023</v>
+        <v>190492</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>254878</v>
+        <v>254818</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0397219094302975</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03418537241433107</v>
+        <v>0.03426986190699255</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.045852901601778</v>
+        <v>0.045842181674019</v>
       </c>
     </row>
     <row r="30">
@@ -5105,19 +5105,19 @@
         <v>27197</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17007</v>
+        <v>16933</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39368</v>
+        <v>39359</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008683144227517049</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.005429967399815766</v>
+        <v>0.005406378204473147</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0125690940608285</v>
+        <v>0.01256622177892156</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -5126,19 +5126,19 @@
         <v>13535</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7305</v>
+        <v>7252</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24294</v>
+        <v>22883</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005577850843738827</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.003010737802917807</v>
+        <v>0.002988807965715358</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01001214519778784</v>
+        <v>0.009430712051495236</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -5147,19 +5147,19 @@
         <v>40731</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>29872</v>
+        <v>28905</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>56543</v>
+        <v>56149</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.007327598550228871</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.005374025311244902</v>
+        <v>0.005200020698529135</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01017212268417217</v>
+        <v>0.01010131741489487</v>
       </c>
     </row>
     <row r="31">
@@ -5176,19 +5176,19 @@
         <v>26354</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16347</v>
+        <v>17601</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40275</v>
+        <v>40833</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.008414004443952412</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.005219178524826311</v>
+        <v>0.00561951223178159</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01285878146353212</v>
+        <v>0.01303675087109229</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5197,19 +5197,19 @@
         <v>5287</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12162</v>
+        <v>12517</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002178951144366905</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0008264949797297141</v>
+        <v>0.0008207579710941312</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.005012219391522965</v>
+        <v>0.005158324127133169</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>28</v>
@@ -5218,19 +5218,19 @@
         <v>31641</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20730</v>
+        <v>21462</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>44454</v>
+        <v>45859</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00569223277752421</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003729405733635762</v>
+        <v>0.003861124720145761</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007997437239323802</v>
+        <v>0.008250194891336162</v>
       </c>
     </row>
     <row r="32">
@@ -5247,19 +5247,19 @@
         <v>103304</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>84366</v>
+        <v>84462</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>125178</v>
+        <v>126596</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0329822335308089</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02693590231933475</v>
+        <v>0.02696647338021451</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03996602742795693</v>
+        <v>0.04041886237080037</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>38</v>
@@ -5268,19 +5268,19 @@
         <v>40405</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>28469</v>
+        <v>29246</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>54892</v>
+        <v>55713</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01665188366484964</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01173260746516639</v>
+        <v>0.01205286348518282</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02262199655254689</v>
+        <v>0.02296052263668944</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>137</v>
@@ -5289,19 +5289,19 @@
         <v>143710</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>122577</v>
+        <v>122359</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>169283</v>
+        <v>170608</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02585358820375416</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02205187014836465</v>
+        <v>0.02201255618980425</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03045431835745285</v>
+        <v>0.03069271960868621</v>
       </c>
     </row>
     <row r="33">
@@ -5318,19 +5318,19 @@
         <v>39738</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>28159</v>
+        <v>27747</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>55267</v>
+        <v>55663</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01268741605613125</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.008990321649705264</v>
+        <v>0.008858876486878393</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0176453379827562</v>
+        <v>0.01777158565340418</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>16</v>
@@ -5339,19 +5339,19 @@
         <v>18212</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>10312</v>
+        <v>11022</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>28134</v>
+        <v>30563</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.00750541401799596</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.004249851104243076</v>
+        <v>0.004542413200737411</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01159443940285676</v>
+        <v>0.01259559383649177</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>52</v>
@@ -5360,19 +5360,19 @@
         <v>57950</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>43752</v>
+        <v>43301</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>76728</v>
+        <v>74745</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01042533012918216</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.007871037968018683</v>
+        <v>0.007789876448751533</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01380352611897905</v>
+        <v>0.01344673200342191</v>
       </c>
     </row>
     <row r="34">
@@ -5389,19 +5389,19 @@
         <v>385823</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>347586</v>
+        <v>348501</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>426590</v>
+        <v>424859</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1231829863010877</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1109749470629999</v>
+        <v>0.1112670547784549</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1361986273367936</v>
+        <v>0.1356462050054991</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>212</v>
@@ -5410,19 +5410,19 @@
         <v>233172</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>204441</v>
+        <v>201749</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>268131</v>
+        <v>262070</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09609486197601093</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08425440803569988</v>
+        <v>0.08314498321012011</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1105023002994226</v>
+        <v>0.1080042396714926</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>578</v>
@@ -5431,19 +5431,19 @@
         <v>618995</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>573636</v>
+        <v>572021</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>671986</v>
+        <v>667190</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1113582775548802</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1031981403993947</v>
+        <v>0.1029076413728722</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1208914937838309</v>
+        <v>0.1200286510666004</v>
       </c>
     </row>
     <row r="35">
@@ -5774,19 +5774,19 @@
         <v>579207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>559908</v>
+        <v>557877</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>600062</v>
+        <v>601863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7904629176493613</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7641254727599993</v>
+        <v>0.7613532155699331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8189239791615219</v>
+        <v>0.821382472431856</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>422</v>
@@ -5795,19 +5795,19 @@
         <v>454461</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>439922</v>
+        <v>439118</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>468444</v>
+        <v>467004</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8920714114008017</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8635325332422502</v>
+        <v>0.8619540007799784</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9195190342099958</v>
+        <v>0.9166915384023522</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1004</v>
@@ -5816,19 +5816,19 @@
         <v>1033668</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1007849</v>
+        <v>1004970</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1057543</v>
+        <v>1057367</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.832134448878073</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8113488199578057</v>
+        <v>0.8090314760869842</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8513541922260438</v>
+        <v>0.8512128677949329</v>
       </c>
     </row>
     <row r="5">
@@ -5845,19 +5845,19 @@
         <v>24594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16239</v>
+        <v>16386</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36970</v>
+        <v>36398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03356488705838974</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0221616533906175</v>
+        <v>0.02236208751630134</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05045424191406817</v>
+        <v>0.0496731051200329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -5866,19 +5866,19 @@
         <v>3814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11024</v>
+        <v>11542</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007486016188448483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001795033322747487</v>
+        <v>0.001788748429693762</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02164014471285328</v>
+        <v>0.02265517051587696</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -5887,19 +5887,19 @@
         <v>28408</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19254</v>
+        <v>19629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40176</v>
+        <v>41462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02286945755497884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01549991723054307</v>
+        <v>0.01580182500364952</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03234313280625385</v>
+        <v>0.03337785929863223</v>
       </c>
     </row>
     <row r="6">
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5526</v>
+        <v>4999</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00215396227869922</v>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.007541266452065896</v>
+        <v>0.00682221076479786</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6624</v>
+        <v>6688</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002621667723835561</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01300155234220015</v>
+        <v>0.01312862056029309</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -5958,19 +5958,19 @@
         <v>2914</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8298</v>
+        <v>8481</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002345776971971959</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006319911052910096</v>
+        <v>0.0006310216382836927</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006680307855589584</v>
+        <v>0.006827126492419815</v>
       </c>
     </row>
     <row r="7">
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5824</v>
+        <v>5760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002267923259613971</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007948139250053259</v>
+        <v>0.007860844841852146</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4837</v>
+        <v>4831</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001883770204815688</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.00949381254326487</v>
+        <v>0.00948209110679255</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -6029,19 +6029,19 @@
         <v>2621</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6563</v>
+        <v>7173</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002110374954067864</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006163544276071296</v>
+        <v>0.0006174940227694957</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005283641457698143</v>
+        <v>0.005774239686539428</v>
       </c>
     </row>
     <row r="8">
@@ -6058,19 +6058,19 @@
         <v>13354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7472</v>
+        <v>7740</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22881</v>
+        <v>22428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01822498814127024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01019688442767328</v>
+        <v>0.01056354249155539</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0312259736022748</v>
+        <v>0.0306082954121615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -6079,19 +6079,19 @@
         <v>3734</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11212</v>
+        <v>10687</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007330023777161222</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001752637154249311</v>
+        <v>0.001731893044783227</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02200923556161249</v>
+        <v>0.0209782499276119</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -6100,19 +6100,19 @@
         <v>17088</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10468</v>
+        <v>10391</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26459</v>
+        <v>27169</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01375676082116754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008426817225661217</v>
+        <v>0.008364740070261197</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02129992573869969</v>
+        <v>0.02187167304579306</v>
       </c>
     </row>
     <row r="9">
@@ -6129,19 +6129,19 @@
         <v>7406</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3241</v>
+        <v>3577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13287</v>
+        <v>14156</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0101069734584941</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004423486089319649</v>
+        <v>0.004881469630705592</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01813306807332082</v>
+        <v>0.01931949653146132</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -6150,19 +6150,19 @@
         <v>3429</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10171</v>
+        <v>9062</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006730619274584218</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002016970898757061</v>
+        <v>0.002006141271329278</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01996549075123519</v>
+        <v>0.01778711728646451</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -6171,19 +6171,19 @@
         <v>10835</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5223</v>
+        <v>5281</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18383</v>
+        <v>18682</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.008722267873169964</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004204310230218232</v>
+        <v>0.00425099931450719</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01479902106648755</v>
+        <v>0.01503995770724524</v>
       </c>
     </row>
     <row r="10">
@@ -6200,19 +6200,19 @@
         <v>104942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88155</v>
+        <v>87185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122751</v>
+        <v>125775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1432183481541715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1203078573039761</v>
+        <v>0.1189845896417903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1675229951202519</v>
+        <v>0.1716490339418036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -6221,19 +6221,19 @@
         <v>41712</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30079</v>
+        <v>29821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55239</v>
+        <v>55323</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08187649143035311</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05904364116559699</v>
+        <v>0.05853625535248393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1084302598574644</v>
+        <v>0.1085944988057111</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -6242,19 +6242,19 @@
         <v>146654</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125258</v>
+        <v>126021</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>170794</v>
+        <v>171761</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1180609129465708</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1008365508191821</v>
+        <v>0.1014506793976399</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1374939812575285</v>
+        <v>0.1382731050854709</v>
       </c>
     </row>
     <row r="11">
@@ -6346,19 +6346,19 @@
         <v>1451480</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1416854</v>
+        <v>1415402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1486436</v>
+        <v>1485614</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7920499527356029</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7731550276164547</v>
+        <v>0.7723627061111732</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8111251397691117</v>
+        <v>0.8106763546645688</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1195</v>
@@ -6367,19 +6367,19 @@
         <v>1238064</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1212870</v>
+        <v>1211136</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1264879</v>
+        <v>1263236</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8705784901540963</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.85286236500256</v>
+        <v>0.8516429378909613</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8894337541350609</v>
+        <v>0.8882788458507549</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2561</v>
@@ -6388,19 +6388,19 @@
         <v>2689543</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2643028</v>
+        <v>2648247</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2732539</v>
+        <v>2734072</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.826362644341481</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8120706304045647</v>
+        <v>0.8136742357458508</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8395730210999314</v>
+        <v>0.8400441823946656</v>
       </c>
     </row>
     <row r="13">
@@ -6417,19 +6417,19 @@
         <v>75981</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59091</v>
+        <v>58982</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94761</v>
+        <v>96174</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04146155299358752</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03224509552634952</v>
+        <v>0.03218573221331013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05170967445972113</v>
+        <v>0.05248073319381015</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -6438,19 +6438,19 @@
         <v>20050</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11635</v>
+        <v>12410</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30102</v>
+        <v>31850</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01409882667590869</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008181675666763987</v>
+        <v>0.008726369890618313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02116697534559774</v>
+        <v>0.02239596804976349</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -6459,19 +6459,19 @@
         <v>96031</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78585</v>
+        <v>77069</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>119268</v>
+        <v>115334</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02950553266646692</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02414519052236277</v>
+        <v>0.0236795572977008</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03664517481595327</v>
+        <v>0.03543653459603913</v>
       </c>
     </row>
     <row r="14">
@@ -6488,19 +6488,19 @@
         <v>11926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6091</v>
+        <v>5845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20533</v>
+        <v>20601</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006507726274691679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003323564291095166</v>
+        <v>0.003189557626962049</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01120470476667699</v>
+        <v>0.01124185239641744</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6704</v>
+        <v>7117</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001507372453636938</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.00471430044928621</v>
+        <v>0.0050046539687912</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -6530,19 +6530,19 @@
         <v>14069</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7693</v>
+        <v>7147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22787</v>
+        <v>23521</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004322844138561131</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002363698092862845</v>
+        <v>0.002195805600259925</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007001298122621634</v>
+        <v>0.007226815117009925</v>
       </c>
     </row>
     <row r="15">
@@ -6559,19 +6559,19 @@
         <v>15765</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7764</v>
+        <v>8483</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26119</v>
+        <v>26366</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00860268744268655</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004236738802622392</v>
+        <v>0.00462920681072204</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01425260842638095</v>
+        <v>0.01438739176030566</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8231</v>
+        <v>8939</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001085964160968864</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.005788152655513279</v>
+        <v>0.006285824506850619</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>14</v>
@@ -6601,19 +6601,19 @@
         <v>17309</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9273</v>
+        <v>9553</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>29813</v>
+        <v>30140</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005318288976460141</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00284902651149428</v>
+        <v>0.002935180853203043</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.009160161423523199</v>
+        <v>0.009260471257541168</v>
       </c>
     </row>
     <row r="16">
@@ -6630,19 +6630,19 @@
         <v>42662</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30160</v>
+        <v>31164</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57320</v>
+        <v>55821</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02328019497576146</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01645805008324531</v>
+        <v>0.01700551927665522</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03127883467610189</v>
+        <v>0.03046061878465697</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -6651,19 +6651,19 @@
         <v>19855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11915</v>
+        <v>12292</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30238</v>
+        <v>31570</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0139618924304059</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008378260865876768</v>
+        <v>0.008643626490127621</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02126266629443458</v>
+        <v>0.02219952319477839</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -6672,19 +6672,19 @@
         <v>62518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49238</v>
+        <v>47161</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81409</v>
+        <v>77553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01920860454456419</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01512827858399701</v>
+        <v>0.01449037169465338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02501278767908803</v>
+        <v>0.02382820757764935</v>
       </c>
     </row>
     <row r="17">
@@ -6701,19 +6701,19 @@
         <v>15432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8367</v>
+        <v>9010</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25202</v>
+        <v>25269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008420899708919247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004565884577296371</v>
+        <v>0.00491636135721481</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0137522956065374</v>
+        <v>0.01378897319053371</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -6722,19 +6722,19 @@
         <v>9877</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4393</v>
+        <v>4217</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18405</v>
+        <v>17569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006945550098022014</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003089243913209758</v>
+        <v>0.00296514371020992</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01294194103721331</v>
+        <v>0.01235415501687305</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -6743,19 +6743,19 @@
         <v>25309</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17188</v>
+        <v>16793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37807</v>
+        <v>37487</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007776252325003406</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005281099823388661</v>
+        <v>0.005159723009426302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0116161770679491</v>
+        <v>0.01151787541823736</v>
       </c>
     </row>
     <row r="18">
@@ -6772,19 +6772,19 @@
         <v>219315</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>194427</v>
+        <v>193687</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>252857</v>
+        <v>251223</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1196769858687507</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.106095612831751</v>
+        <v>0.1056918953828467</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.137980352254309</v>
+        <v>0.1370884627045018</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>124</v>
@@ -6793,19 +6793,19 @@
         <v>130581</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>108660</v>
+        <v>109431</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>152411</v>
+        <v>152669</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09182190402696132</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07640747579007008</v>
+        <v>0.07694914379630861</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1071721738258823</v>
+        <v>0.1073536788408377</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>333</v>
@@ -6814,19 +6814,19 @@
         <v>349897</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>315229</v>
+        <v>312557</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>386057</v>
+        <v>382642</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1075058330074632</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09685418238218718</v>
+        <v>0.09603319751432887</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1186160597913224</v>
+        <v>0.1175666749932212</v>
       </c>
     </row>
     <row r="19">
@@ -6918,19 +6918,19 @@
         <v>346626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321561</v>
+        <v>324035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>368450</v>
+        <v>368290</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6991869662328951</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6486284187557276</v>
+        <v>0.6536186103043322</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7432085485893969</v>
+        <v>0.7428846175939663</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>383</v>
@@ -6939,19 +6939,19 @@
         <v>399744</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>382831</v>
+        <v>382912</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>414518</v>
+        <v>413654</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8366974570099884</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8012966442128525</v>
+        <v>0.8014678006910351</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8676215940912302</v>
+        <v>0.8658115183590912</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>702</v>
@@ -6960,19 +6960,19 @@
         <v>746370</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>718296</v>
+        <v>718835</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>774089</v>
+        <v>774266</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7666715128341438</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7378335108598494</v>
+        <v>0.7383878330288109</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7951442719488764</v>
+        <v>0.7953261423317272</v>
       </c>
     </row>
     <row r="21">
@@ -6989,19 +6989,19 @@
         <v>51631</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37816</v>
+        <v>38903</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>66827</v>
+        <v>68136</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1041460935758479</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07627957187363948</v>
+        <v>0.07847292323541739</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1347984772025594</v>
+        <v>0.1374390454124136</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -7010,19 +7010,19 @@
         <v>23433</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14614</v>
+        <v>15753</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>34466</v>
+        <v>34422</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04904745789035137</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03058936470581494</v>
+        <v>0.03297177138830031</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07213977517152856</v>
+        <v>0.07204738249194433</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>67</v>
@@ -7031,19 +7031,19 @@
         <v>75064</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>58577</v>
+        <v>57148</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>92990</v>
+        <v>93962</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07710592793779089</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06017064492556189</v>
+        <v>0.05870241572607569</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09551976732711548</v>
+        <v>0.09651792663980562</v>
       </c>
     </row>
     <row r="22">
@@ -7060,19 +7060,19 @@
         <v>6542</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2365</v>
+        <v>2115</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13545</v>
+        <v>13484</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01319541467629787</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004770855596403246</v>
+        <v>0.004265453343592324</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02732286175948467</v>
+        <v>0.0271998446399199</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -7081,19 +7081,19 @@
         <v>4913</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1913</v>
+        <v>1879</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10976</v>
+        <v>11492</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01028228041365686</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00400352945887043</v>
+        <v>0.003933128145527742</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02297429712650463</v>
+        <v>0.02405406340942735</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -7102,19 +7102,19 @@
         <v>11454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6099</v>
+        <v>5348</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20804</v>
+        <v>18934</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01176576706329088</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006265299603598794</v>
+        <v>0.00549317402256092</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02136988611968707</v>
+        <v>0.01944915170719968</v>
       </c>
     </row>
     <row r="23">
@@ -7131,19 +7131,19 @@
         <v>4667</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1123</v>
+        <v>1576</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12140</v>
+        <v>12196</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.009412993700833761</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00226600010506026</v>
+        <v>0.003178845705673612</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02448847193706751</v>
+        <v>0.02460079697861261</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6845</v>
+        <v>6379</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004154908283656941</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01432642877809296</v>
+        <v>0.01335185244688227</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -7173,19 +7173,19 @@
         <v>6652</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2616</v>
+        <v>2699</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14900</v>
+        <v>14048</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006832539596106465</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002687055046856849</v>
+        <v>0.002772627117525071</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01530540440934365</v>
+        <v>0.01442984052890179</v>
       </c>
     </row>
     <row r="24">
@@ -7202,19 +7202,19 @@
         <v>15273</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8649</v>
+        <v>8516</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24989</v>
+        <v>24990</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03080709218994218</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01744653740368778</v>
+        <v>0.0171780962739424</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05040507360882721</v>
+        <v>0.05040810975135926</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -7223,19 +7223,19 @@
         <v>13804</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7487</v>
+        <v>7448</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23521</v>
+        <v>24130</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0288919970455698</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01567062792194595</v>
+        <v>0.01558886387560854</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04923075943849571</v>
+        <v>0.05050669803427354</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -7244,19 +7244,19 @@
         <v>29076</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19726</v>
+        <v>19509</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>42735</v>
+        <v>41937</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02986724151538003</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02026263291348618</v>
+        <v>0.02003944450162927</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04389703770776018</v>
+        <v>0.04307790610973013</v>
       </c>
     </row>
     <row r="25">
@@ -7273,19 +7273,19 @@
         <v>9530</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4670</v>
+        <v>4642</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18678</v>
+        <v>19022</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01922224763016978</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009419414085847675</v>
+        <v>0.009362482591050684</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03767636353585693</v>
+        <v>0.03837051369523713</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4902</v>
+        <v>5215</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002043634609165188</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01025941566136811</v>
+        <v>0.0109154309111599</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -7315,19 +7315,19 @@
         <v>10506</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4855</v>
+        <v>5092</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19736</v>
+        <v>20043</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01079168422799248</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004987483794239843</v>
+        <v>0.005230404770723169</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02027266120572858</v>
+        <v>0.02058824558697073</v>
       </c>
     </row>
     <row r="26">
@@ -7344,19 +7344,19 @@
         <v>61488</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>47320</v>
+        <v>47462</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77031</v>
+        <v>79481</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1240291919940133</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09545062404515721</v>
+        <v>0.09573695466851011</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1553803275569884</v>
+        <v>0.1603220497360539</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -7365,19 +7365,19 @@
         <v>32909</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22657</v>
+        <v>23233</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45124</v>
+        <v>46042</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06888226474761143</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04742301182330404</v>
+        <v>0.04862886721014996</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09444866089452743</v>
+        <v>0.09637014148564248</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>87</v>
@@ -7386,19 +7386,19 @@
         <v>94398</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>77501</v>
+        <v>76894</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>113860</v>
+        <v>114383</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09696532682529542</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07960902723670216</v>
+        <v>0.07898504067882363</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1169569597704739</v>
+        <v>0.1174939274770573</v>
       </c>
     </row>
     <row r="27">
@@ -7490,19 +7490,19 @@
         <v>2377313</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2329467</v>
+        <v>2333403</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2425139</v>
+        <v>2426549</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7766303780628172</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.760999994276745</v>
+        <v>0.7622856552206382</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7922542805605691</v>
+        <v>0.7927148867755766</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2000</v>
@@ -7511,19 +7511,19 @@
         <v>2092269</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2055277</v>
+        <v>2055383</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2127196</v>
+        <v>2125246</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8684045750820047</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8530508123671615</v>
+        <v>0.8530947666725864</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8829010539548486</v>
+        <v>0.8820918582099938</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4267</v>
@@ -7532,19 +7532,19 @@
         <v>4469582</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4412894</v>
+        <v>4414576</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4529273</v>
+        <v>4533033</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8170505395639567</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.806687809351099</v>
+        <v>0.8069953559654854</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8279621789967532</v>
+        <v>0.828649543368029</v>
       </c>
     </row>
     <row r="29">
@@ -7561,19 +7561,19 @@
         <v>152206</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>129408</v>
+        <v>128893</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>180719</v>
+        <v>178833</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04972339044338565</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04227542367955736</v>
+        <v>0.04210735078430808</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05903795297980764</v>
+        <v>0.05842193280644196</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -7582,19 +7582,19 @@
         <v>47297</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34340</v>
+        <v>34447</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>62540</v>
+        <v>63587</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0196308010198761</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01425302576669653</v>
+        <v>0.01429729610347559</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02595737053763498</v>
+        <v>0.02639185129900165</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>182</v>
@@ -7603,19 +7603,19 @@
         <v>199503</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>171173</v>
+        <v>172827</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>228874</v>
+        <v>229264</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03646969426305913</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03129088565147255</v>
+        <v>0.03159311673914344</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04183874033591385</v>
+        <v>0.04190997392730585</v>
       </c>
     </row>
     <row r="30">
@@ -7632,19 +7632,19 @@
         <v>20046</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12615</v>
+        <v>11802</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31077</v>
+        <v>30745</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006548648036558263</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004121223042139967</v>
+        <v>0.003855395264726594</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01015251563062175</v>
+        <v>0.01004391372634736</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -7653,19 +7653,19 @@
         <v>8392</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3866</v>
+        <v>4027</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16323</v>
+        <v>15867</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003483031349154851</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001604666932705637</v>
+        <v>0.001671220561479931</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.006774866325134432</v>
+        <v>0.006585639817477815</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>27</v>
@@ -7674,19 +7674,19 @@
         <v>28438</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19741</v>
+        <v>19498</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>40783</v>
+        <v>40741</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005198456744995915</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003608701562863835</v>
+        <v>0.003564292384791589</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.007455242650902333</v>
+        <v>0.007447631727262377</v>
       </c>
     </row>
     <row r="31">
@@ -7703,19 +7703,19 @@
         <v>22093</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13953</v>
+        <v>13395</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34423</v>
+        <v>33815</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.00721753064861643</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004558354571294243</v>
+        <v>0.004375790003710785</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01124556382301988</v>
+        <v>0.01104696577125761</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -7724,19 +7724,19 @@
         <v>4489</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1081</v>
+        <v>966</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10965</v>
+        <v>11224</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001863222630243938</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0004485116275600475</v>
+        <v>0.0004008105010653876</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.004551015301196171</v>
+        <v>0.004658704764722691</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>23</v>
@@ -7745,19 +7745,19 @@
         <v>26582</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>16515</v>
+        <v>16570</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>41914</v>
+        <v>38507</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.004859329739659261</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003019012470196251</v>
+        <v>0.00302909135967372</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007661896323626549</v>
+        <v>0.007039105169674625</v>
       </c>
     </row>
     <row r="32">
@@ -7774,19 +7774,19 @@
         <v>71289</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>54674</v>
+        <v>56611</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>88028</v>
+        <v>89593</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02328912269929568</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01786104626658127</v>
+        <v>0.01849390138847943</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02875718681751702</v>
+        <v>0.02926864839217237</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>34</v>
@@ -7795,19 +7795,19 @@
         <v>37393</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25702</v>
+        <v>25323</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>51693</v>
+        <v>52069</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01552020857861081</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01066775671726704</v>
+        <v>0.01051028661150994</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02145542689839927</v>
+        <v>0.02161148994969909</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>102</v>
@@ -7816,19 +7816,19 @@
         <v>108683</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>89167</v>
+        <v>89258</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>130697</v>
+        <v>130893</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01986745545898289</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0162999214042559</v>
+        <v>0.01631656370310768</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02389166894714903</v>
+        <v>0.02392755683202578</v>
       </c>
     </row>
     <row r="33">
@@ -7845,19 +7845,19 @@
         <v>32367</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>22632</v>
+        <v>22015</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>47023</v>
+        <v>46285</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01057384357360546</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.007393443660964891</v>
+        <v>0.007191865289646217</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01536179465534924</v>
+        <v>0.01512067305157352</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>13</v>
@@ -7866,19 +7866,19 @@
         <v>14283</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>7788</v>
+        <v>8220</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>24062</v>
+        <v>24311</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.005928064869583655</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.003232624643299585</v>
+        <v>0.00341167008397277</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.009986882115859064</v>
+        <v>0.01009045032324248</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>43</v>
@@ -7887,19 +7887,19 @@
         <v>46650</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>33979</v>
+        <v>33231</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>62253</v>
+        <v>62950</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.008527700631315751</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.006211354405537201</v>
+        <v>0.006074639913939464</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01137998656551345</v>
+        <v>0.0115073576354697</v>
       </c>
     </row>
     <row r="34">
@@ -7916,19 +7916,19 @@
         <v>385746</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>349104</v>
+        <v>348817</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>423440</v>
+        <v>426350</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1260170865357213</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1140466043517052</v>
+        <v>0.1139530156453414</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1383310730375112</v>
+        <v>0.1392817048702827</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>193</v>
@@ -7937,19 +7937,19 @@
         <v>205202</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>178283</v>
+        <v>178715</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>232924</v>
+        <v>233853</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08517009647052584</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07399721310281253</v>
+        <v>0.07417629412660269</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09667607578905545</v>
+        <v>0.09706158860827013</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>567</v>
@@ -7958,19 +7958,19 @@
         <v>590948</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>546774</v>
+        <v>543496</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>639016</v>
+        <v>636851</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1080268235980303</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09995160280128483</v>
+        <v>0.09935241169167724</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1168137201953913</v>
+        <v>0.1164179287390074</v>
       </c>
     </row>
     <row r="35">
@@ -8301,19 +8301,19 @@
         <v>428100</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>409300</v>
+        <v>407850</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>448220</v>
+        <v>445727</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7529159134879947</v>
+        <v>0.7529159134879946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7198515019696921</v>
+        <v>0.7173011894663905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7883025973593097</v>
+        <v>0.7839172788668303</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>671</v>
@@ -8322,19 +8322,19 @@
         <v>381016</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>368330</v>
+        <v>367094</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>393025</v>
+        <v>392420</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8129009850022614</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7858346629376992</v>
+        <v>0.783197728137261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8385217938661516</v>
+        <v>0.8372303261304342</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1172</v>
@@ -8343,19 +8343,19 @@
         <v>809116</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>784166</v>
+        <v>785108</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>830428</v>
+        <v>830357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7800206042672509</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7559680859707149</v>
+        <v>0.7568756707101023</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8005662595169037</v>
+        <v>0.800497489040921</v>
       </c>
     </row>
     <row r="5">
@@ -8372,19 +8372,19 @@
         <v>18124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11432</v>
+        <v>12206</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26499</v>
+        <v>27275</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03187603105135897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0201065420501375</v>
+        <v>0.02146636217387147</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0466052192505895</v>
+        <v>0.04796922655647101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -8393,19 +8393,19 @@
         <v>2863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1301</v>
+        <v>1047</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6487</v>
+        <v>6411</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006108008837965168</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002774796928195422</v>
+        <v>0.002234468259839388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01384053571222606</v>
+        <v>0.01367695648725362</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -8414,19 +8414,19 @@
         <v>20987</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14427</v>
+        <v>14291</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30686</v>
+        <v>29335</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02023256282742039</v>
+        <v>0.0202325628274204</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01390859599605702</v>
+        <v>0.01377694013404673</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02958255267849664</v>
+        <v>0.0282802610942573</v>
       </c>
     </row>
     <row r="6">
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4145</v>
+        <v>3806</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001341459223612543</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.007289576961368465</v>
+        <v>0.006693129676038522</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2582</v>
+        <v>2352</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0009201687075048209</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.005509535533873774</v>
+        <v>0.005018977382250593</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4184</v>
+        <v>4973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001151096040255876</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004033888744313177</v>
+        <v>0.00479415633790623</v>
       </c>
     </row>
     <row r="7">
@@ -8514,19 +8514,19 @@
         <v>2515</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7991</v>
+        <v>8470</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004424014192368856</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001001308840803885</v>
+        <v>0.0009957087894595213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01405401357793764</v>
+        <v>0.01489627166494465</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10244</v>
+        <v>9546</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003688586453855242</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02185670238861155</v>
+        <v>0.02036663478202325</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -8556,19 +8556,19 @@
         <v>4244</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1154</v>
+        <v>1089</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12028</v>
+        <v>11076</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00409170582064076</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001112038535291393</v>
+        <v>0.001049636807524392</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01159528820026598</v>
+        <v>0.01067799544742841</v>
       </c>
     </row>
     <row r="8">
@@ -8585,19 +8585,19 @@
         <v>10888</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6295</v>
+        <v>6399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18560</v>
+        <v>17770</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01914939439105507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01107208209951529</v>
+        <v>0.01125389773438238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03264254438144328</v>
+        <v>0.03125248161953926</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -8606,19 +8606,19 @@
         <v>7792</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4332</v>
+        <v>4465</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13197</v>
+        <v>13719</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01662360759326904</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009242000007522589</v>
+        <v>0.009526430754354538</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02815624747749314</v>
+        <v>0.02926918277130509</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -8627,19 +8627,19 @@
         <v>18680</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12219</v>
+        <v>12626</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26162</v>
+        <v>26625</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.01800809925878143</v>
+        <v>0.01800809925878144</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01177964625670846</v>
+        <v>0.01217179852427086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02522091732597798</v>
+        <v>0.02566739307670685</v>
       </c>
     </row>
     <row r="9">
@@ -8656,19 +8656,19 @@
         <v>5524</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2383</v>
+        <v>2193</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11862</v>
+        <v>10924</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.009714799817516068</v>
+        <v>0.00971479981751607</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004191763807242308</v>
+        <v>0.003856181365935254</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02086283216006158</v>
+        <v>0.01921202375842066</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2700</v>
+        <v>2928</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001428949449123668</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.005759928947406961</v>
+        <v>0.006247786135058908</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -8698,19 +8698,19 @@
         <v>6193</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2859</v>
+        <v>2741</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12778</v>
+        <v>12449</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005970778073288449</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002756125436158626</v>
+        <v>0.002642437011392011</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01231870296588604</v>
+        <v>0.01200090070655327</v>
       </c>
     </row>
     <row r="10">
@@ -8727,19 +8727,19 @@
         <v>102675</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87424</v>
+        <v>86163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121501</v>
+        <v>120295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1805783878360939</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1537561028581977</v>
+        <v>0.1515374075798248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2136889448480827</v>
+        <v>0.2115684023056514</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>134</v>
@@ -8748,19 +8748,19 @@
         <v>74211</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63371</v>
+        <v>63169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87078</v>
+        <v>86485</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1583296939560205</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.135203190506607</v>
+        <v>0.1347723899917616</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.185782235524491</v>
+        <v>0.1845162805130445</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>261</v>
@@ -8769,19 +8769,19 @@
         <v>176886</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>155589</v>
+        <v>157400</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198863</v>
+        <v>198643</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.170525153712362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1499944886110857</v>
+        <v>0.1517404183577751</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1917121122467504</v>
+        <v>0.191499509803665</v>
       </c>
     </row>
     <row r="11">
@@ -8873,19 +8873,19 @@
         <v>1489548</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1447815</v>
+        <v>1444793</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1528838</v>
+        <v>1527032</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7493404215836985</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7283458919086504</v>
+        <v>0.7268255586492161</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7691061367957561</v>
+        <v>0.7681971464939776</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1942</v>
@@ -8894,19 +8894,19 @@
         <v>1394654</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1369378</v>
+        <v>1368745</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1418862</v>
+        <v>1420171</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.845095217250877</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8297794540624401</v>
+        <v>0.829395367735294</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8597644116971858</v>
+        <v>0.8605575674353647</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3304</v>
@@ -8918,16 +8918,16 @@
         <v>2836986</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2931887</v>
+        <v>2932759</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7927760653738442</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7797978253765028</v>
+        <v>0.7797978689454432</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8058831901803026</v>
+        <v>0.8061228357117924</v>
       </c>
     </row>
     <row r="13">
@@ -8944,19 +8944,19 @@
         <v>151532</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127604</v>
+        <v>129440</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178728</v>
+        <v>181384</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07623079950233384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06419309444330211</v>
+        <v>0.0651169129927201</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08991167183934957</v>
+        <v>0.09124782159304157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -8965,19 +8965,19 @@
         <v>44954</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34489</v>
+        <v>34557</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57576</v>
+        <v>57881</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02723987573953264</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02089871170090792</v>
+        <v>0.02094000106717064</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03488817310097968</v>
+        <v>0.03507307066842544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>214</v>
@@ -8986,19 +8986,19 @@
         <v>196486</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171649</v>
+        <v>169019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224838</v>
+        <v>224489</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05400786749475607</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04718077524934953</v>
+        <v>0.04645803298303107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06180074657650631</v>
+        <v>0.06170481010319776</v>
       </c>
     </row>
     <row r="14">
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8148</v>
+        <v>8163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001163586051765725</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.00409883811134148</v>
+        <v>0.004106733952478134</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -9036,19 +9036,19 @@
         <v>4564</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9012</v>
+        <v>9597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002765469738549217</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001238538430921646</v>
+        <v>0.00123698714528789</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.005461034818752575</v>
+        <v>0.005815573257959912</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -9057,19 +9057,19 @@
         <v>6877</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3202</v>
+        <v>3336</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13060</v>
+        <v>13520</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.001890221712440234</v>
+        <v>0.001890221712440233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0008802318344171218</v>
+        <v>0.0009170154348290151</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003589864998796675</v>
+        <v>0.003716262236332498</v>
       </c>
     </row>
     <row r="15">
@@ -9086,19 +9086,19 @@
         <v>16064</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9497</v>
+        <v>9137</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30078</v>
+        <v>29690</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008081352931156154</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004777646506815779</v>
+        <v>0.004596425523006973</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01513137059522734</v>
+        <v>0.01493588239897668</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -9107,19 +9107,19 @@
         <v>8977</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4866</v>
+        <v>4881</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14743</v>
+        <v>14556</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.005439482171867222</v>
+        <v>0.005439482171867223</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.002948753195322476</v>
+        <v>0.002957575103975782</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.008933803800659782</v>
+        <v>0.008820520888652325</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>28</v>
@@ -9131,16 +9131,16 @@
         <v>16848</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>37513</v>
+        <v>39235</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.006882965357556974</v>
+        <v>0.006882965357556975</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004630970472107272</v>
+        <v>0.004630869912559721</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01031111518389733</v>
+        <v>0.01078449447988164</v>
       </c>
     </row>
     <row r="16">
@@ -9157,19 +9157,19 @@
         <v>80766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64011</v>
+        <v>65123</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98343</v>
+        <v>99409</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04063050920978376</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03220153755146447</v>
+        <v>0.03276125343688103</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04947279922607502</v>
+        <v>0.05000910879089968</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -9178,19 +9178,19 @@
         <v>32555</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24497</v>
+        <v>24390</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41720</v>
+        <v>42854</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01972700652190418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01484425655127158</v>
+        <v>0.0147791396340711</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02528034269463458</v>
+        <v>0.02596763442082818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>144</v>
@@ -9199,19 +9199,19 @@
         <v>113321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93383</v>
+        <v>95529</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132985</v>
+        <v>134050</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03114840347929966</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0256681089953384</v>
+        <v>0.02625778929590028</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03655342634641907</v>
+        <v>0.03684602379670295</v>
       </c>
     </row>
     <row r="17">
@@ -9228,19 +9228,19 @@
         <v>23935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15212</v>
+        <v>15512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36435</v>
+        <v>35342</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01204082513499771</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007652599874672795</v>
+        <v>0.007803601086645599</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0183291836627133</v>
+        <v>0.01777955867529281</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -9249,19 +9249,19 @@
         <v>6998</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3430</v>
+        <v>3585</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13890</v>
+        <v>12971</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004240226188821012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002078334202647573</v>
+        <v>0.002172092281569366</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.008416788589383741</v>
+        <v>0.007859677211433935</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -9270,19 +9270,19 @@
         <v>30933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21724</v>
+        <v>21145</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44430</v>
+        <v>45546</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.008502370117521722</v>
+        <v>0.00850237011752172</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005971215048081021</v>
+        <v>0.005812130766517204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01221250322729415</v>
+        <v>0.01251907942625747</v>
       </c>
     </row>
     <row r="18">
@@ -9299,19 +9299,19 @@
         <v>223654</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>197418</v>
+        <v>196783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>253021</v>
+        <v>256191</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1125125055862642</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09931406588589718</v>
+        <v>0.09899457369432897</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1272863125418694</v>
+        <v>0.1288809991275471</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>232</v>
@@ -9320,19 +9320,19 @@
         <v>157591</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>137854</v>
+        <v>138101</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>178750</v>
+        <v>178772</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09549272238844868</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08353297754956432</v>
+        <v>0.08368283948871898</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1083142954847761</v>
+        <v>0.1083277521740791</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>459</v>
@@ -9341,19 +9341,19 @@
         <v>381245</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>344875</v>
+        <v>348020</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>416111</v>
+        <v>417452</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1047921064645812</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09479515047327977</v>
+        <v>0.09565982011278452</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1143757751609469</v>
+        <v>0.1147444473895559</v>
       </c>
     </row>
     <row r="19">
@@ -9445,19 +9445,19 @@
         <v>407059</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>379684</v>
+        <v>376707</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>434373</v>
+        <v>432592</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6126684066873225</v>
+        <v>0.6126684066873226</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5714665691980865</v>
+        <v>0.5669849691079908</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6537795469351492</v>
+        <v>0.6510986668559948</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>716</v>
@@ -9466,19 +9466,19 @@
         <v>511958</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>491564</v>
+        <v>491371</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>530846</v>
+        <v>529335</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7560309639599539</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.725914222794369</v>
+        <v>0.7256295140183254</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7839247823958917</v>
+        <v>0.7816935306638938</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1105</v>
@@ -9487,19 +9487,19 @@
         <v>919016</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>883990</v>
+        <v>884721</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>950506</v>
+        <v>952598</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6850315664936176</v>
+        <v>0.6850315664936178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6589231486399033</v>
+        <v>0.6594681791691923</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7085036887181758</v>
+        <v>0.7100632758511792</v>
       </c>
     </row>
     <row r="21">
@@ -9516,19 +9516,19 @@
         <v>98963</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>82904</v>
+        <v>80432</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>120052</v>
+        <v>117683</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1489500083371546</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1247801991755778</v>
+        <v>0.1210587239504789</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1806921497146854</v>
+        <v>0.1771264152949473</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -9537,19 +9537,19 @@
         <v>62225</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>50077</v>
+        <v>50604</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>75010</v>
+        <v>76783</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09188998404588666</v>
+        <v>0.09188998404588669</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07395151960977621</v>
+        <v>0.07472983839467043</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1107704929912368</v>
+        <v>0.1133885427265538</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>184</v>
@@ -9558,19 +9558,19 @@
         <v>161188</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>140748</v>
+        <v>139842</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>187820</v>
+        <v>187353</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1201485992740619</v>
+        <v>0.120148599274062</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1049134260616281</v>
+        <v>0.1042376409959492</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1400003625832284</v>
+        <v>0.1396520342915807</v>
       </c>
     </row>
     <row r="22">
@@ -9587,19 +9587,19 @@
         <v>12483</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6536</v>
+        <v>7138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20329</v>
+        <v>22137</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01878871635894531</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009837826365057459</v>
+        <v>0.01074276266043986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03059779945583693</v>
+        <v>0.03331823756904989</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -9608,19 +9608,19 @@
         <v>3134</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8037</v>
+        <v>7908</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004627677646161699</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001049759345057299</v>
+        <v>0.001053607096898225</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01186801885300557</v>
+        <v>0.01167768638069462</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -9629,19 +9629,19 @@
         <v>15617</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9332</v>
+        <v>9481</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24950</v>
+        <v>24691</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0116408422773777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006955686250916034</v>
+        <v>0.007066816447835291</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01859767803733887</v>
+        <v>0.01840459785879956</v>
       </c>
     </row>
     <row r="23">
@@ -9658,19 +9658,19 @@
         <v>18468</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10855</v>
+        <v>10241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>34179</v>
+        <v>31504</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02779685146147704</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0163377952442817</v>
+        <v>0.01541434255749938</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05144261328607176</v>
+        <v>0.04741658631639838</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -9679,19 +9679,19 @@
         <v>8661</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4536</v>
+        <v>4883</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15384</v>
+        <v>15683</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01278937422034875</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006697929266716697</v>
+        <v>0.007211267923685732</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02271876199083564</v>
+        <v>0.02315955579611089</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>28</v>
@@ -9700,19 +9700,19 @@
         <v>27129</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>18514</v>
+        <v>17925</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>41290</v>
+        <v>43430</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.02022173216569125</v>
+        <v>0.02022173216569126</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01380009528255365</v>
+        <v>0.01336149778711787</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03077715015537162</v>
+        <v>0.03237261410514957</v>
       </c>
     </row>
     <row r="24">
@@ -9729,19 +9729,19 @@
         <v>24455</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16423</v>
+        <v>16356</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35249</v>
+        <v>36134</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03680817034408398</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02471799015477019</v>
+        <v>0.02461731358262223</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05305432322568752</v>
+        <v>0.05438604238947538</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -9750,19 +9750,19 @@
         <v>17642</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11729</v>
+        <v>12007</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26054</v>
+        <v>25977</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02605252855975647</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01732069589260108</v>
+        <v>0.01773101857107327</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03847478950930003</v>
+        <v>0.03836142127551084</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>55</v>
@@ -9771,19 +9771,19 @@
         <v>42097</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32161</v>
+        <v>30985</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>54569</v>
+        <v>54573</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03137919195484914</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02397242261074279</v>
+        <v>0.02309627621852876</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04067553966652878</v>
+        <v>0.04067818757774549</v>
       </c>
     </row>
     <row r="25">
@@ -9800,19 +9800,19 @@
         <v>12679</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6986</v>
+        <v>7014</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20530</v>
+        <v>21642</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01908271907861632</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01051535568690072</v>
+        <v>0.0105563994080434</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03090043331161003</v>
+        <v>0.03257308030148948</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -9821,19 +9821,19 @@
         <v>3244</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1277</v>
+        <v>1215</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7075</v>
+        <v>7200</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004790618536271028</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001885754455156859</v>
+        <v>0.001794627781280577</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01044783773576406</v>
+        <v>0.01063308118974121</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -9842,19 +9842,19 @@
         <v>15923</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9855</v>
+        <v>9356</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24622</v>
+        <v>25485</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.01186869070755008</v>
+        <v>0.01186869070755009</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007345604930249827</v>
+        <v>0.006974184292681557</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01835344064434152</v>
+        <v>0.01899648480180347</v>
       </c>
     </row>
     <row r="26">
@@ -9871,19 +9871,19 @@
         <v>90296</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72150</v>
+        <v>73319</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>108414</v>
+        <v>110701</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1359051277324002</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1085931737525703</v>
+        <v>0.1103538615692723</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1631750848376688</v>
+        <v>0.1666175902276655</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>98</v>
@@ -9892,19 +9892,19 @@
         <v>70302</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>57582</v>
+        <v>57334</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>85688</v>
+        <v>84016</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1038188530316215</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08503319666168287</v>
+        <v>0.08466706794437699</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1265393735512991</v>
+        <v>0.1240700375389295</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>186</v>
@@ -9913,19 +9913,19 @@
         <v>160598</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>138993</v>
+        <v>140829</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>185508</v>
+        <v>187359</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1197093771268521</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.103604777224375</v>
+        <v>0.1049734508788998</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1382767830019913</v>
+        <v>0.13965678915084</v>
       </c>
     </row>
     <row r="27">
@@ -10017,19 +10017,19 @@
         <v>2324706</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2274514</v>
+        <v>2272967</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2376715</v>
+        <v>2376082</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7217782573592413</v>
+        <v>0.7217782573592412</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7061945120198476</v>
+        <v>0.7057140776182531</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7379261379953944</v>
+        <v>0.7377295909885846</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3329</v>
@@ -10038,19 +10038,19 @@
         <v>2287628</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2252660</v>
+        <v>2249884</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2323130</v>
+        <v>2317121</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.8181293866619439</v>
+        <v>0.8181293866619437</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8056235315562709</v>
+        <v>0.8046307332995259</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8308259516934456</v>
+        <v>0.8286769021635608</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5581</v>
@@ -10059,19 +10059,19 @@
         <v>4612334</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4550343</v>
+        <v>4550731</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4673782</v>
+        <v>4673273</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7665539366454118</v>
+        <v>0.7665539366454116</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7562512347274707</v>
+        <v>0.7563157394531188</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7767663097540234</v>
+        <v>0.776681687738446</v>
       </c>
     </row>
     <row r="29">
@@ -10088,19 +10088,19 @@
         <v>268620</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>237101</v>
+        <v>234130</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>300346</v>
+        <v>301781</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0834014406261749</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0736155007326847</v>
+        <v>0.07269315534229531</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09325179431586104</v>
+        <v>0.09369751816110841</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>150</v>
@@ -10109,19 +10109,19 @@
         <v>110041</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>94099</v>
+        <v>93535</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>130253</v>
+        <v>128149</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03935431805000621</v>
+        <v>0.0393543180500062</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03365291081678676</v>
+        <v>0.03345111978764695</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04658254836122684</v>
+        <v>0.04583032000906555</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>428</v>
@@ -10130,19 +10130,19 @@
         <v>378661</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>344735</v>
+        <v>345702</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>421710</v>
+        <v>420933</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06293214412469789</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05729383766172061</v>
+        <v>0.0574544565602223</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07008675919427468</v>
+        <v>0.06995764015920543</v>
       </c>
     </row>
     <row r="30">
@@ -10159,19 +10159,19 @@
         <v>15559</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9021</v>
+        <v>9625</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24615</v>
+        <v>25439</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004830784841334683</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002800981402468551</v>
+        <v>0.002988376081758994</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.007642639280754778</v>
+        <v>0.007898384886988061</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -10180,19 +10180,19 @@
         <v>8129</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4184</v>
+        <v>4460</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14110</v>
+        <v>14187</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.002907130376332383</v>
+        <v>0.002907130376332382</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001496396383624123</v>
+        <v>0.001594967439584323</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.005046093442777998</v>
+        <v>0.005073849844856938</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>29</v>
@@ -10201,19 +10201,19 @@
         <v>23688</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15447</v>
+        <v>16128</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>33783</v>
+        <v>33793</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003936836467239841</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002567205516410378</v>
+        <v>0.002680424269119543</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.005614685343777436</v>
+        <v>0.005616214735905302</v>
       </c>
     </row>
     <row r="31">
@@ -10230,19 +10230,19 @@
         <v>37048</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25852</v>
+        <v>25528</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54977</v>
+        <v>54466</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0115027085339641</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.008026435012361652</v>
+        <v>0.00792610974903874</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01706948783762308</v>
+        <v>0.01691079918210379</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>26</v>
@@ -10251,19 +10251,19 @@
         <v>19366</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12598</v>
+        <v>12407</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28375</v>
+        <v>28500</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.006925952960547921</v>
+        <v>0.006925952960547918</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004505567129097421</v>
+        <v>0.004437192272385934</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01014763976168632</v>
+        <v>0.01019251932984108</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>60</v>
@@ -10272,19 +10272,19 @@
         <v>56414</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>42003</v>
+        <v>42904</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>75353</v>
+        <v>74827</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009375828016739815</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006980787860238103</v>
+        <v>0.007130532383138547</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01252342289331354</v>
+        <v>0.01243591139411148</v>
       </c>
     </row>
     <row r="32">
@@ -10301,19 +10301,19 @@
         <v>116109</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>96387</v>
+        <v>96552</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>137869</v>
+        <v>137581</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03604981975684116</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02992624077630387</v>
+        <v>0.02997757647439026</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0428057582876897</v>
+        <v>0.04271626923259118</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>92</v>
@@ -10322,19 +10322,19 @@
         <v>57989</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>46621</v>
+        <v>46408</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>70751</v>
+        <v>71088</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02073868408129143</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01667327251359501</v>
+        <v>0.01659686155766546</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02530293979832607</v>
+        <v>0.02542342864081073</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>229</v>
@@ -10343,19 +10343,19 @@
         <v>174098</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>149615</v>
+        <v>150374</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>197300</v>
+        <v>200852</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02893452691619743</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02486541027802772</v>
+        <v>0.02499166609595322</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0327905972955853</v>
+        <v>0.0333808229641917</v>
       </c>
     </row>
     <row r="33">
@@ -10372,19 +10372,19 @@
         <v>42137</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>30831</v>
+        <v>31100</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>58611</v>
+        <v>57828</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01308283315887228</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.009572300915987786</v>
+        <v>0.009655891204732762</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01819750069385713</v>
+        <v>0.01795444836041676</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>16</v>
@@ -10393,19 +10393,19 @@
         <v>10911</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>6473</v>
+        <v>6362</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>17771</v>
+        <v>17048</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.003902273449663379</v>
+        <v>0.003902273449663378</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.00231489270056414</v>
+        <v>0.002275224338026519</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.006355475840405168</v>
+        <v>0.006096849726196762</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>60</v>
@@ -10414,19 +10414,19 @@
         <v>53049</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>41060</v>
+        <v>40374</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>69616</v>
+        <v>70337</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.008816502289872843</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.006823969915545062</v>
+        <v>0.006710096127547398</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01156989741003574</v>
+        <v>0.01168980252029528</v>
       </c>
     </row>
     <row r="34">
@@ -10443,19 +10443,19 @@
         <v>416624</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>382561</v>
+        <v>380029</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>461065</v>
+        <v>457300</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1293541557235716</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1187782388338295</v>
+        <v>0.1179919597538543</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1431522828703315</v>
+        <v>0.1419831480161</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>464</v>
@@ -10464,19 +10464,19 @@
         <v>302104</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>275201</v>
+        <v>276880</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>330882</v>
+        <v>332959</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1080422544202149</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09842063910174108</v>
+        <v>0.09902133328630432</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1183339162139924</v>
+        <v>0.1190767988483577</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>906</v>
@@ -10485,19 +10485,19 @@
         <v>718729</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>670812</v>
+        <v>670340</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>762540</v>
+        <v>765647</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1194502255398404</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1114866705136236</v>
+        <v>0.1114081464728117</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1267315193294258</v>
+        <v>0.1272478549942889</v>
       </c>
     </row>
     <row r="35">
